--- a/xlsx/protection-pattern.xlsx
+++ b/xlsx/protection-pattern.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -20,7 +23,16 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Protection.Pattern</t>
+    <t xml:space="preserve">Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity_Applied_To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fields_Excluded_From_View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0</t>
   </si>
   <si>
     <t xml:space="preserve">01</t>
@@ -29,7 +41,20 @@
     <t xml:space="preserve">Application Protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Mandatory</t>
+    <t xml:space="preserve">Information about an application is protected until the resources are confirmed as successful. This includes protecting applications which have had a decision other than a full or partial award.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application
+Application Decision
+Organisation (if linked to application)
+Group (if linked to application)
+Person (if linked to application)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All application related data (including Application Review and Application Decision)
+All person data linked to the application
+All organisation data linked to the application
+All group data linked to the application</t>
   </si>
   <si>
     <t xml:space="preserve">02</t>
@@ -38,13 +63,50 @@
     <t xml:space="preserve">Application Review</t>
   </si>
   <si>
+    <t xml:space="preserve">Information about the review of an application (including scores) is not available publically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application Review
+Person (if linked to application)
+Organisation (if linked to application)
+Group (if linked to application)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Application Review data
+All person data linked to the application review
+All organisation data linked to the application review
+All group data linked to the application review</t>
+  </si>
+  <si>
     <t xml:space="preserve">03</t>
   </si>
   <si>
     <t xml:space="preserve">Commercial Financial</t>
   </si>
   <si>
-    <t xml:space="preserve">Optional</t>
+    <t xml:space="preserve">Financial information is competitive until research is completed / released</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application
+Award Granted 
+Resource Distributed
+Award Received 
+Resource Received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application | Minimum Resource Quantity
+Application | Maximum Resource Quantity
+Application | Resource Value
+Award Granted | Allocated Resource | Minimum Resource Quantity
+Award Granted | Allocated Resource | Maximum Resource Quantity
+Award Granted | Allocated Resource | Resource Value
+Resource Distributed | Resource Actual Quantity
+Resource Distributed | Resource Value
+Award Received | Allocated Resource | Minimum Resource Quantity
+Award Received | Allocated Resource | Maximum Resource Quantity
+Award Received | Allocated Resource | Resource Value
+Resource Received | Resource Actual Quantity
+Resource Received | Resource Value</t>
   </si>
   <si>
     <t xml:space="preserve">04</t>
@@ -53,13 +115,51 @@
     <t xml:space="preserve">Topic Identifiable</t>
   </si>
   <si>
+    <t xml:space="preserve">Topics that some members of the public might be antagonistic towards being researched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application 
+Award Granted 
+Project
+Award Received
+Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application | Application Title
+Application | Outcome Goal
+Application | Proposal Title
+Award Granted | Award Title
+Award Granted | Award Description
+Project | Project Title
+Project | Project Description
+Project | Keywords
+Award Received | Award Title
+Award Received | Award Description
+Output | Output Title
+Output | Output description
+Output Identifiers</t>
+  </si>
+  <si>
     <t xml:space="preserve">05</t>
   </si>
   <si>
     <t xml:space="preserve">Personal Identifiable</t>
   </si>
   <si>
-    <t xml:space="preserve">Default</t>
+    <t xml:space="preserve">Personally identifiable data is protected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person | Given Name
+Person | Other Given Names
+Person | Family Name
+Person | Date of Birth
+Person | Local Person ID
+Person | Sector Person ID
+Person | Data Owner ID
+Person | Prior Local Person ID</t>
   </si>
   <si>
     <t xml:space="preserve">06</t>
@@ -68,28 +168,62 @@
     <t xml:space="preserve">Personal Demographic</t>
   </si>
   <si>
+    <t xml:space="preserve">Information that is used to demographically categorise a person and their work is protected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person | Gender
+Person | Other Gender Information
+Person | Ethnicity
+Person | Iwi Affiliation</t>
+  </si>
+  <si>
     <t xml:space="preserve">07</t>
   </si>
   <si>
     <t xml:space="preserve">Personal Professional</t>
   </si>
   <si>
+    <t xml:space="preserve">Information that is used to professionally categorise a person and their work is protected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person | Career stage
+Person | Academic Record
+Person | Recognition
+Person | Professional Bodies
+Person | Organisational Affiliation</t>
+  </si>
+  <si>
     <t xml:space="preserve">08</t>
   </si>
   <si>
     <t xml:space="preserve">No Protection Needed</t>
   </si>
   <si>
+    <t xml:space="preserve">Explicitly stating data is not sensitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All fields</t>
+  </si>
+  <si>
     <t xml:space="preserve">09</t>
   </si>
   <si>
     <t xml:space="preserve">Work In Progress Protection</t>
   </si>
   <si>
+    <t xml:space="preserve">Information that needs protection, providers have some ideas what should be done</t>
+  </si>
+  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">Unknown protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information that needs protection but the specific patterns don't fit.</t>
   </si>
 </sst>
 </file>
@@ -419,7 +553,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -431,16 +565,34 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -448,98 +600,179 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
